--- a/biology/Botanique/Erodium/Erodium.xlsx
+++ b/biology/Botanique/Erodium/Erodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Erodium regroupe diverses plantes de la famille des Géraniacées, auxquelles on donne généralement le nom vernaculaire de becs-de-grue, en raison de leurs fruits comparables à de longs becs érigés. On en compte en tout une soixantaine d’espèces, pour la plupart originaires des régions méditerranéennes ou d’Asie occidentale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl von Linné regroupait en un même genre (Geranium) les trois genres fort proches les uns des autres que sont Erodium, Geranium et Pelargonium. La distinction entre eux a été faite par Charles Louis L'Héritier de Brutelle en fonction du nombre des étamines, ou plutôt des anthères, cinq pour Erodium, sept pour Pelargonium et dix pour Geranium (chaque genre possède dix étamines, mais certaines ont des filets sans anthères). 
 Mais les trois genres possèdent la même caractéristique au niveau de leurs fruits, comparables à de longs becs d’oiseau. D’où leurs noms scientifiques : Geranium évoque la grue (grec geranos), Pelargonium la cigogne (pelargos) et Erodium le héron (erodios). Il existe cependant une distinction entre Geranium et Erodium à la maturité des cinq carpelles communs à l'ensemble de la famille : ceux du premier restent retenus par le haut et se roulent en arc ; ceux du second se détachent et se roulent en tire-bouchon.
@@ -544,7 +558,9 @@
           <t>Dissémination des graines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante dissémine ses graines par autochorie, elle perce également le sol à l'aide de sa vrille qui pousse dans la terre son bec.
 </t>
@@ -575,7 +591,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Erodium acaule (L.) Bech. &amp; Thell.
